--- a/data/상장법인/연구원님들/상장기업 검색_조원호_수정2.xlsx
+++ b/data/상장법인/연구원님들/상장기업 검색_조원호_수정2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidus\Desktop\GRI Github\TNFD\data\상장법인\연구원님들\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\TNFD\data\상장법인\연구원님들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA63986-0DA9-4C76-982E-696A90962E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F6A717-7D53-4F00-873E-543A0B077861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{4871476C-9F62-4C15-97FF-B07E154A1572}"/>
   </bookViews>
@@ -9262,9 +9262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73014AF-42AF-4851-8357-A0EE2B9A9C66}">
   <dimension ref="A1:P446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
